--- a/BalanceSheet/HOLX_bal.xlsx
+++ b/BalanceSheet/HOLX_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-24800000.0</v>
+        <v>456000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-21200000.0</v>
+        <v>420000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>22700000.0</v>
+        <v>395000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-14700000.0</v>
+        <v>414000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-18400000.0</v>
+        <v>401000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>380800000.0</v>
@@ -1984,19 +1984,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>28200000.0</v>
+        <v>225000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>4600000.0</v>
+        <v>184000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>50200000.0</v>
+        <v>179000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-7200000.0</v>
+        <v>127000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>7500000.0</v>
+        <v>134000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>123700000.0</v>
@@ -3436,19 +3436,19 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>-11500000.0</v>
+        <v>230000000.0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>-12000000.0</v>
+        <v>189000000.0</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>-31100000.0</v>
+        <v>186000000.0</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>-19100000.0</v>
+        <v>214000000.0</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>283700000.0</v>
+        <v>236000000.0</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>5700000.0</v>
@@ -5120,7 +5120,7 @@
         <v>2866000000.0</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>2816000000.0</v>
+        <v>2719600000.0</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>2472400000.0</v>
@@ -5247,7 +5247,7 @@
         <v>3666000000.0</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>3187000000.0</v>
+        <v>3090400000.0</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>3074200000.0</v>
